--- a/Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/Financials/Yearly/CEA_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB5D13B-B9C9-4D72-942F-6D88AEF2E8BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEA" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14902900</v>
+        <v>15208300</v>
       </c>
       <c r="E8" s="3">
-        <v>14383600</v>
+        <v>14678300</v>
       </c>
       <c r="F8" s="3">
-        <v>13665900</v>
+        <v>13945900</v>
       </c>
       <c r="G8" s="3">
-        <v>13115600</v>
+        <v>13384400</v>
       </c>
       <c r="H8" s="3">
-        <v>12833500</v>
+        <v>13096400</v>
       </c>
       <c r="I8" s="3">
-        <v>12398400</v>
+        <v>12652400</v>
       </c>
       <c r="J8" s="3">
-        <v>11983900</v>
+        <v>12229400</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10236700</v>
+        <v>10446400</v>
       </c>
       <c r="E9" s="3">
-        <v>9151900</v>
+        <v>9339400</v>
       </c>
       <c r="F9" s="3">
-        <v>8707500</v>
+        <v>8885900</v>
       </c>
       <c r="G9" s="3">
-        <v>9127600</v>
+        <v>9314700</v>
       </c>
       <c r="H9" s="3">
-        <v>9509400</v>
+        <v>9704300</v>
       </c>
       <c r="I9" s="3">
-        <v>8152000</v>
+        <v>8319000</v>
       </c>
       <c r="J9" s="3">
-        <v>7742700</v>
+        <v>7901300</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4666300</v>
+        <v>4761900</v>
       </c>
       <c r="E10" s="3">
-        <v>5231700</v>
+        <v>5338900</v>
       </c>
       <c r="F10" s="3">
-        <v>4958400</v>
+        <v>5060000</v>
       </c>
       <c r="G10" s="3">
-        <v>3988000</v>
+        <v>4069700</v>
       </c>
       <c r="H10" s="3">
-        <v>3324100</v>
+        <v>3392200</v>
       </c>
       <c r="I10" s="3">
-        <v>4246400</v>
+        <v>4333400</v>
       </c>
       <c r="J10" s="3">
-        <v>4241200</v>
+        <v>4328100</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,18 +889,18 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-202000</v>
+        <v>-206100</v>
       </c>
       <c r="E14" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F14" s="3">
-        <v>26300</v>
+        <v>26900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -877,38 +912,38 @@
         <v>-2000</v>
       </c>
       <c r="J14" s="3">
-        <v>92800</v>
+        <v>94700</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2031500</v>
+        <v>2073100</v>
       </c>
       <c r="E15" s="3">
-        <v>1767600</v>
+        <v>1803800</v>
       </c>
       <c r="F15" s="3">
-        <v>1522800</v>
+        <v>1554000</v>
       </c>
       <c r="G15" s="3">
-        <v>1335500</v>
+        <v>1362800</v>
       </c>
       <c r="H15" s="3">
-        <v>1196300</v>
+        <v>1220900</v>
       </c>
       <c r="I15" s="3">
-        <v>1099000</v>
+        <v>1121500</v>
       </c>
       <c r="J15" s="3">
-        <v>1013000</v>
+        <v>1033800</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13531400</v>
+        <v>13808700</v>
       </c>
       <c r="E17" s="3">
-        <v>12567800</v>
+        <v>12825300</v>
       </c>
       <c r="F17" s="3">
-        <v>11829900</v>
+        <v>12072300</v>
       </c>
       <c r="G17" s="3">
-        <v>12234600</v>
+        <v>12485300</v>
       </c>
       <c r="H17" s="3">
-        <v>12604200</v>
+        <v>12862500</v>
       </c>
       <c r="I17" s="3">
-        <v>11783500</v>
+        <v>12025000</v>
       </c>
       <c r="J17" s="3">
-        <v>11377100</v>
+        <v>11610200</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1371600</v>
+        <v>1399700</v>
       </c>
       <c r="E18" s="3">
-        <v>1815800</v>
+        <v>1853000</v>
       </c>
       <c r="F18" s="3">
-        <v>1836100</v>
+        <v>1873700</v>
       </c>
       <c r="G18" s="3">
-        <v>881000</v>
+        <v>899100</v>
       </c>
       <c r="H18" s="3">
-        <v>229200</v>
+        <v>233900</v>
       </c>
       <c r="I18" s="3">
-        <v>614900</v>
+        <v>627500</v>
       </c>
       <c r="J18" s="3">
-        <v>606800</v>
+        <v>619200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>343700</v>
+        <v>350700</v>
       </c>
       <c r="E20" s="3">
-        <v>-478500</v>
+        <v>-488300</v>
       </c>
       <c r="F20" s="3">
-        <v>-693600</v>
+        <v>-707800</v>
       </c>
       <c r="G20" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H20" s="3">
-        <v>318400</v>
+        <v>324900</v>
       </c>
       <c r="I20" s="3">
-        <v>70100</v>
+        <v>71500</v>
       </c>
       <c r="J20" s="3">
-        <v>309900</v>
+        <v>316200</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3746200</v>
+        <v>3820400</v>
       </c>
       <c r="E21" s="3">
-        <v>3158400</v>
+        <v>3220900</v>
       </c>
       <c r="F21" s="3">
-        <v>2717600</v>
+        <v>2771400</v>
       </c>
       <c r="G21" s="3">
-        <v>2213700</v>
+        <v>2257500</v>
       </c>
       <c r="H21" s="3">
-        <v>1739900</v>
+        <v>1774100</v>
       </c>
       <c r="I21" s="3">
-        <v>1780300</v>
+        <v>1815400</v>
       </c>
       <c r="J21" s="3">
-        <v>1924900</v>
+        <v>1963100</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>463000</v>
+        <v>472500</v>
       </c>
       <c r="E22" s="3">
-        <v>392500</v>
+        <v>400600</v>
       </c>
       <c r="F22" s="3">
-        <v>318300</v>
+        <v>324900</v>
       </c>
       <c r="G22" s="3">
-        <v>284600</v>
+        <v>290400</v>
       </c>
       <c r="H22" s="3">
-        <v>225200</v>
+        <v>229800</v>
       </c>
       <c r="I22" s="3">
-        <v>246900</v>
+        <v>251900</v>
       </c>
       <c r="J22" s="3">
-        <v>212700</v>
+        <v>217100</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1252200</v>
+        <v>1277800</v>
       </c>
       <c r="E23" s="3">
-        <v>944900</v>
+        <v>964200</v>
       </c>
       <c r="F23" s="3">
-        <v>824200</v>
+        <v>841000</v>
       </c>
       <c r="G23" s="3">
-        <v>598200</v>
+        <v>610400</v>
       </c>
       <c r="H23" s="3">
-        <v>322400</v>
+        <v>329000</v>
       </c>
       <c r="I23" s="3">
-        <v>438100</v>
+        <v>447100</v>
       </c>
       <c r="J23" s="3">
-        <v>704000</v>
+        <v>718400</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>261800</v>
+        <v>267100</v>
       </c>
       <c r="E24" s="3">
-        <v>224300</v>
+        <v>228800</v>
       </c>
       <c r="F24" s="3">
-        <v>90700</v>
+        <v>92600</v>
       </c>
       <c r="G24" s="3">
-        <v>83300</v>
+        <v>85000</v>
       </c>
       <c r="H24" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="I24" s="3">
-        <v>29800</v>
+        <v>30400</v>
       </c>
       <c r="J24" s="3">
-        <v>38400</v>
+        <v>39200</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>990400</v>
+        <v>1010700</v>
       </c>
       <c r="E26" s="3">
-        <v>720600</v>
+        <v>735400</v>
       </c>
       <c r="F26" s="3">
-        <v>733400</v>
+        <v>748400</v>
       </c>
       <c r="G26" s="3">
-        <v>514800</v>
+        <v>525400</v>
       </c>
       <c r="H26" s="3">
-        <v>304400</v>
+        <v>310600</v>
       </c>
       <c r="I26" s="3">
-        <v>408300</v>
+        <v>416700</v>
       </c>
       <c r="J26" s="3">
-        <v>665600</v>
+        <v>679200</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>922300</v>
+        <v>941200</v>
       </c>
       <c r="E27" s="3">
-        <v>654100</v>
+        <v>667500</v>
       </c>
       <c r="F27" s="3">
-        <v>659800</v>
+        <v>673300</v>
       </c>
       <c r="G27" s="3">
-        <v>495900</v>
+        <v>506100</v>
       </c>
       <c r="H27" s="3">
-        <v>345000</v>
+        <v>352100</v>
       </c>
       <c r="I27" s="3">
-        <v>429500</v>
+        <v>438400</v>
       </c>
       <c r="J27" s="3">
-        <v>665400</v>
+        <v>679100</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-343700</v>
+        <v>-350700</v>
       </c>
       <c r="E32" s="3">
-        <v>478500</v>
+        <v>488300</v>
       </c>
       <c r="F32" s="3">
-        <v>693600</v>
+        <v>707800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H32" s="3">
-        <v>-318400</v>
+        <v>-324900</v>
       </c>
       <c r="I32" s="3">
-        <v>-70100</v>
+        <v>-71500</v>
       </c>
       <c r="J32" s="3">
-        <v>-309900</v>
+        <v>-316200</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>922300</v>
+        <v>941200</v>
       </c>
       <c r="E33" s="3">
-        <v>654100</v>
+        <v>667500</v>
       </c>
       <c r="F33" s="3">
-        <v>659800</v>
+        <v>673300</v>
       </c>
       <c r="G33" s="3">
-        <v>495900</v>
+        <v>506100</v>
       </c>
       <c r="H33" s="3">
-        <v>345000</v>
+        <v>352100</v>
       </c>
       <c r="I33" s="3">
-        <v>429500</v>
+        <v>438400</v>
       </c>
       <c r="J33" s="3">
-        <v>665400</v>
+        <v>679100</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>922300</v>
+        <v>941200</v>
       </c>
       <c r="E35" s="3">
-        <v>654100</v>
+        <v>667500</v>
       </c>
       <c r="F35" s="3">
-        <v>659800</v>
+        <v>673300</v>
       </c>
       <c r="G35" s="3">
-        <v>495900</v>
+        <v>506100</v>
       </c>
       <c r="H35" s="3">
-        <v>345000</v>
+        <v>352100</v>
       </c>
       <c r="I35" s="3">
-        <v>429500</v>
+        <v>438400</v>
       </c>
       <c r="J35" s="3">
-        <v>665400</v>
+        <v>679100</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,34 +1510,34 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>669700</v>
+        <v>683400</v>
       </c>
       <c r="E41" s="3">
-        <v>246500</v>
+        <v>251600</v>
       </c>
       <c r="F41" s="3">
-        <v>1320500</v>
+        <v>1347600</v>
       </c>
       <c r="G41" s="3">
-        <v>197100</v>
+        <v>201100</v>
       </c>
       <c r="H41" s="3">
-        <v>290100</v>
+        <v>296100</v>
       </c>
       <c r="I41" s="3">
-        <v>365300</v>
+        <v>372800</v>
       </c>
       <c r="J41" s="3">
-        <v>561500</v>
+        <v>573000</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,196 +1564,196 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1518600</v>
+        <v>1549700</v>
       </c>
       <c r="E43" s="3">
-        <v>1281100</v>
+        <v>1307300</v>
       </c>
       <c r="F43" s="3">
-        <v>1475100</v>
+        <v>1505300</v>
       </c>
       <c r="G43" s="3">
-        <v>561700</v>
+        <v>573200</v>
       </c>
       <c r="H43" s="3">
-        <v>512600</v>
+        <v>523100</v>
       </c>
       <c r="I43" s="3">
-        <v>430800</v>
+        <v>439600</v>
       </c>
       <c r="J43" s="3">
-        <v>364200</v>
+        <v>371600</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>317800</v>
+        <v>324300</v>
       </c>
       <c r="E44" s="3">
-        <v>326900</v>
+        <v>333600</v>
       </c>
       <c r="F44" s="3">
-        <v>299000</v>
+        <v>305100</v>
       </c>
       <c r="G44" s="3">
-        <v>328500</v>
+        <v>335300</v>
       </c>
       <c r="H44" s="3">
-        <v>335300</v>
+        <v>342100</v>
       </c>
       <c r="I44" s="3">
-        <v>303700</v>
+        <v>309900</v>
       </c>
       <c r="J44" s="3">
-        <v>226200</v>
+        <v>230900</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>154300</v>
+        <v>157500</v>
       </c>
       <c r="E45" s="3">
-        <v>456100</v>
+        <v>465400</v>
       </c>
       <c r="F45" s="3">
-        <v>261600</v>
+        <v>267000</v>
       </c>
       <c r="G45" s="3">
-        <v>1565800</v>
+        <v>1597900</v>
       </c>
       <c r="H45" s="3">
-        <v>695900</v>
+        <v>710100</v>
       </c>
       <c r="I45" s="3">
-        <v>743600</v>
+        <v>758800</v>
       </c>
       <c r="J45" s="3">
-        <v>841700</v>
+        <v>858900</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2660400</v>
+        <v>2714900</v>
       </c>
       <c r="E46" s="3">
-        <v>2310600</v>
+        <v>2357900</v>
       </c>
       <c r="F46" s="3">
-        <v>3356200</v>
+        <v>3425000</v>
       </c>
       <c r="G46" s="3">
-        <v>2653100</v>
+        <v>2707400</v>
       </c>
       <c r="H46" s="3">
-        <v>1833900</v>
+        <v>1871400</v>
       </c>
       <c r="I46" s="3">
-        <v>1843300</v>
+        <v>1881100</v>
       </c>
       <c r="J46" s="3">
-        <v>1993600</v>
+        <v>2034400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>447300</v>
+        <v>456500</v>
       </c>
       <c r="E47" s="3">
-        <v>405500</v>
+        <v>413800</v>
       </c>
       <c r="F47" s="3">
-        <v>507100</v>
+        <v>517500</v>
       </c>
       <c r="G47" s="3">
-        <v>294400</v>
+        <v>300400</v>
       </c>
       <c r="H47" s="3">
-        <v>277500</v>
+        <v>283200</v>
       </c>
       <c r="I47" s="3">
-        <v>216200</v>
+        <v>220600</v>
       </c>
       <c r="J47" s="3">
-        <v>218300</v>
+        <v>222800</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27941000</v>
+        <v>28513600</v>
       </c>
       <c r="E48" s="3">
-        <v>25761900</v>
+        <v>26289800</v>
       </c>
       <c r="F48" s="3">
-        <v>22553400</v>
+        <v>23015600</v>
       </c>
       <c r="G48" s="3">
-        <v>18862100</v>
+        <v>19248600</v>
       </c>
       <c r="H48" s="3">
-        <v>15863300</v>
+        <v>16188400</v>
       </c>
       <c r="I48" s="3">
-        <v>13730600</v>
+        <v>14011900</v>
       </c>
       <c r="J48" s="3">
-        <v>12321700</v>
+        <v>12574200</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1686400</v>
+        <v>1721000</v>
       </c>
       <c r="E49" s="3">
-        <v>1690500</v>
+        <v>1725100</v>
       </c>
       <c r="F49" s="3">
-        <v>1675600</v>
+        <v>1710000</v>
       </c>
       <c r="G49" s="3">
-        <v>1672400</v>
+        <v>1706700</v>
       </c>
       <c r="H49" s="3">
-        <v>1671000</v>
+        <v>1705200</v>
       </c>
       <c r="I49" s="3">
-        <v>1665000</v>
+        <v>1699200</v>
       </c>
       <c r="J49" s="3">
-        <v>1651200</v>
+        <v>1685000</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>674100</v>
+        <v>687900</v>
       </c>
       <c r="E52" s="3">
-        <v>709800</v>
+        <v>724400</v>
       </c>
       <c r="F52" s="3">
-        <v>701600</v>
+        <v>715900</v>
       </c>
       <c r="G52" s="3">
-        <v>634500</v>
+        <v>647500</v>
       </c>
       <c r="H52" s="3">
-        <v>724400</v>
+        <v>739200</v>
       </c>
       <c r="I52" s="3">
-        <v>551900</v>
+        <v>563200</v>
       </c>
       <c r="J52" s="3">
-        <v>501700</v>
+        <v>512000</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33409200</v>
+        <v>34093800</v>
       </c>
       <c r="E54" s="3">
-        <v>30878300</v>
+        <v>31511000</v>
       </c>
       <c r="F54" s="3">
-        <v>28794000</v>
+        <v>29384000</v>
       </c>
       <c r="G54" s="3">
-        <v>24116500</v>
+        <v>24610700</v>
       </c>
       <c r="H54" s="3">
-        <v>20370100</v>
+        <v>20787500</v>
       </c>
       <c r="I54" s="3">
-        <v>18006900</v>
+        <v>18375900</v>
       </c>
       <c r="J54" s="3">
-        <v>16686500</v>
+        <v>17028400</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>463000</v>
+        <v>472500</v>
       </c>
       <c r="E57" s="3">
-        <v>491000</v>
+        <v>501000</v>
       </c>
       <c r="F57" s="3">
-        <v>539800</v>
+        <v>550900</v>
       </c>
       <c r="G57" s="3">
-        <v>302900</v>
+        <v>309100</v>
       </c>
       <c r="H57" s="3">
-        <v>3142600</v>
+        <v>3207000</v>
       </c>
       <c r="I57" s="3">
-        <v>475600</v>
+        <v>485300</v>
       </c>
       <c r="J57" s="3">
-        <v>405600</v>
+        <v>413900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7028800</v>
+        <v>7172800</v>
       </c>
       <c r="E58" s="3">
-        <v>5132100</v>
+        <v>5237200</v>
       </c>
       <c r="F58" s="3">
-        <v>6445900</v>
+        <v>6578000</v>
       </c>
       <c r="G58" s="3">
-        <v>4838700</v>
+        <v>4937900</v>
       </c>
       <c r="H58" s="3">
-        <v>3819800</v>
+        <v>3898100</v>
       </c>
       <c r="I58" s="3">
-        <v>3778200</v>
+        <v>3855600</v>
       </c>
       <c r="J58" s="3">
-        <v>3054900</v>
+        <v>3117500</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4190300</v>
+        <v>4276100</v>
       </c>
       <c r="E59" s="3">
-        <v>4278100</v>
+        <v>4365800</v>
       </c>
       <c r="F59" s="3">
-        <v>3832400</v>
+        <v>3910900</v>
       </c>
       <c r="G59" s="3">
-        <v>3748500</v>
+        <v>3825300</v>
       </c>
       <c r="H59" s="3">
-        <v>757300</v>
+        <v>772800</v>
       </c>
       <c r="I59" s="3">
-        <v>2817500</v>
+        <v>2875200</v>
       </c>
       <c r="J59" s="3">
-        <v>2849200</v>
+        <v>2907600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11682100</v>
+        <v>11921500</v>
       </c>
       <c r="E60" s="3">
-        <v>9901200</v>
+        <v>10104000</v>
       </c>
       <c r="F60" s="3">
-        <v>10818100</v>
+        <v>11039800</v>
       </c>
       <c r="G60" s="3">
-        <v>8890100</v>
+        <v>9072300</v>
       </c>
       <c r="H60" s="3">
-        <v>7719700</v>
+        <v>7877900</v>
       </c>
       <c r="I60" s="3">
-        <v>7071200</v>
+        <v>7216100</v>
       </c>
       <c r="J60" s="3">
-        <v>6309700</v>
+        <v>6439000</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11974400</v>
+        <v>12219800</v>
       </c>
       <c r="E61" s="3">
-        <v>11995600</v>
+        <v>12241500</v>
       </c>
       <c r="F61" s="3">
-        <v>10876400</v>
+        <v>11099300</v>
       </c>
       <c r="G61" s="3">
-        <v>9396500</v>
+        <v>9589100</v>
       </c>
       <c r="H61" s="3">
-        <v>6903600</v>
+        <v>7045000</v>
       </c>
       <c r="I61" s="3">
-        <v>6158800</v>
+        <v>6285000</v>
       </c>
       <c r="J61" s="3">
-        <v>6021500</v>
+        <v>6144900</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1204600</v>
+        <v>1229300</v>
       </c>
       <c r="E62" s="3">
-        <v>1365900</v>
+        <v>1393900</v>
       </c>
       <c r="F62" s="3">
-        <v>1292300</v>
+        <v>1318800</v>
       </c>
       <c r="G62" s="3">
-        <v>1209400</v>
+        <v>1234200</v>
       </c>
       <c r="H62" s="3">
-        <v>1590100</v>
+        <v>1622700</v>
       </c>
       <c r="I62" s="3">
-        <v>1206100</v>
+        <v>1230800</v>
       </c>
       <c r="J62" s="3">
-        <v>1184100</v>
+        <v>1208400</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25358200</v>
+        <v>25877800</v>
       </c>
       <c r="E66" s="3">
-        <v>23686800</v>
+        <v>24172100</v>
       </c>
       <c r="F66" s="3">
-        <v>23353300</v>
+        <v>23831800</v>
       </c>
       <c r="G66" s="3">
-        <v>19757400</v>
+        <v>20162200</v>
       </c>
       <c r="H66" s="3">
-        <v>16457700</v>
+        <v>16794900</v>
       </c>
       <c r="I66" s="3">
-        <v>14672800</v>
+        <v>14973500</v>
       </c>
       <c r="J66" s="3">
-        <v>13759600</v>
+        <v>14041500</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5947100</v>
+        <v>6068900</v>
       </c>
       <c r="E72" s="3">
-        <v>5087600</v>
+        <v>5191800</v>
       </c>
       <c r="F72" s="3">
-        <v>3529700</v>
+        <v>3602100</v>
       </c>
       <c r="G72" s="3">
-        <v>-411400</v>
+        <v>-419900</v>
       </c>
       <c r="H72" s="3">
-        <v>-859700</v>
+        <v>-877300</v>
       </c>
       <c r="I72" s="3">
-        <v>-925800</v>
+        <v>-944700</v>
       </c>
       <c r="J72" s="3">
-        <v>-1354200</v>
+        <v>-1382000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8051000</v>
+        <v>8216000</v>
       </c>
       <c r="E76" s="3">
-        <v>7191500</v>
+        <v>7338900</v>
       </c>
       <c r="F76" s="3">
-        <v>5440700</v>
+        <v>5552200</v>
       </c>
       <c r="G76" s="3">
-        <v>4359100</v>
+        <v>4448400</v>
       </c>
       <c r="H76" s="3">
-        <v>3912400</v>
+        <v>3992600</v>
       </c>
       <c r="I76" s="3">
-        <v>3334100</v>
+        <v>3402400</v>
       </c>
       <c r="J76" s="3">
-        <v>2926900</v>
+        <v>2986900</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>922300</v>
+        <v>941200</v>
       </c>
       <c r="E81" s="3">
-        <v>654100</v>
+        <v>667500</v>
       </c>
       <c r="F81" s="3">
-        <v>659800</v>
+        <v>673300</v>
       </c>
       <c r="G81" s="3">
-        <v>495900</v>
+        <v>506100</v>
       </c>
       <c r="H81" s="3">
-        <v>345000</v>
+        <v>352100</v>
       </c>
       <c r="I81" s="3">
-        <v>429500</v>
+        <v>438400</v>
       </c>
       <c r="J81" s="3">
-        <v>665400</v>
+        <v>679100</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2025000</v>
+        <v>2066500</v>
       </c>
       <c r="E83" s="3">
-        <v>1815700</v>
+        <v>1852900</v>
       </c>
       <c r="F83" s="3">
-        <v>1570500</v>
+        <v>1602700</v>
       </c>
       <c r="G83" s="3">
-        <v>1327000</v>
+        <v>1354200</v>
       </c>
       <c r="H83" s="3">
-        <v>1188800</v>
+        <v>1213100</v>
       </c>
       <c r="I83" s="3">
-        <v>1092100</v>
+        <v>1114400</v>
       </c>
       <c r="J83" s="3">
-        <v>1005200</v>
+        <v>1025800</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2846400</v>
+        <v>2904700</v>
       </c>
       <c r="E89" s="3">
-        <v>3620200</v>
+        <v>3694400</v>
       </c>
       <c r="F89" s="3">
-        <v>3537600</v>
+        <v>3610100</v>
       </c>
       <c r="G89" s="3">
-        <v>1788200</v>
+        <v>1824800</v>
       </c>
       <c r="H89" s="3">
-        <v>1571600</v>
+        <v>1603800</v>
       </c>
       <c r="I89" s="3">
-        <v>1834900</v>
+        <v>1872500</v>
       </c>
       <c r="J89" s="3">
-        <v>1981200</v>
+        <v>2021800</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1152100</v>
+        <v>-1157000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3165300</v>
+        <v>-3195700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1267900</v>
+        <v>-1277700</v>
       </c>
       <c r="G91" s="3">
-        <v>-847600</v>
+        <v>-864900</v>
       </c>
       <c r="H91" s="3">
-        <v>-265000</v>
+        <v>-270400</v>
       </c>
       <c r="I91" s="3">
-        <v>-894100</v>
+        <v>-912400</v>
       </c>
       <c r="J91" s="3">
-        <v>-780700</v>
+        <v>-796700</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3099400</v>
+        <v>-3162900</v>
       </c>
       <c r="E94" s="3">
-        <v>-5407100</v>
+        <v>-5517900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4043000</v>
+        <v>-4125800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3495100</v>
+        <v>-3566700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2476300</v>
+        <v>-2527100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1714500</v>
+        <v>-1749600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2172600</v>
+        <v>-2217100</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,15 +2862,15 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-103100</v>
+        <v>-105200</v>
       </c>
       <c r="E96" s="3">
-        <v>-107300</v>
+        <v>-109500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -2854,7 +2889,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>684700</v>
+        <v>698700</v>
       </c>
       <c r="E100" s="3">
-        <v>673900</v>
+        <v>687700</v>
       </c>
       <c r="F100" s="3">
-        <v>1611800</v>
+        <v>1644800</v>
       </c>
       <c r="G100" s="3">
-        <v>1616000</v>
+        <v>1649100</v>
       </c>
       <c r="H100" s="3">
-        <v>833300</v>
+        <v>850300</v>
       </c>
       <c r="I100" s="3">
-        <v>-316200</v>
+        <v>-322700</v>
       </c>
       <c r="J100" s="3">
-        <v>310600</v>
+        <v>316900</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="E101" s="3">
-        <v>39000</v>
+        <v>39800</v>
       </c>
       <c r="F101" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="G101" s="3">
         <v>-2200</v>
       </c>
       <c r="H101" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="I101" s="3">
         <v>-500</v>
       </c>
       <c r="J101" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>424800</v>
+        <v>433500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1074000</v>
+        <v>-1096000</v>
       </c>
       <c r="F102" s="3">
-        <v>1123400</v>
+        <v>1146500</v>
       </c>
       <c r="G102" s="3">
-        <v>-93100</v>
+        <v>-95000</v>
       </c>
       <c r="H102" s="3">
-        <v>-75100</v>
+        <v>-76700</v>
       </c>
       <c r="I102" s="3">
-        <v>-196200</v>
+        <v>-200200</v>
       </c>
       <c r="J102" s="3">
-        <v>113800</v>
+        <v>116200</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/Financials/Yearly/CEA_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB5D13B-B9C9-4D72-942F-6D88AEF2E8BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CEA" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CEA</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15208300</v>
+        <v>16540100</v>
       </c>
       <c r="E8" s="3">
-        <v>14678300</v>
+        <v>14703100</v>
       </c>
       <c r="F8" s="3">
-        <v>13945900</v>
+        <v>14190700</v>
       </c>
       <c r="G8" s="3">
-        <v>13384400</v>
+        <v>13482700</v>
       </c>
       <c r="H8" s="3">
-        <v>13096400</v>
+        <v>12939700</v>
       </c>
       <c r="I8" s="3">
-        <v>12652400</v>
+        <v>12661400</v>
       </c>
       <c r="J8" s="3">
+        <v>12232100</v>
+      </c>
+      <c r="K8" s="3">
         <v>12229400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10446400</v>
+        <v>11578000</v>
       </c>
       <c r="E9" s="3">
-        <v>9339400</v>
+        <v>10099400</v>
       </c>
       <c r="F9" s="3">
-        <v>8885900</v>
+        <v>9029200</v>
       </c>
       <c r="G9" s="3">
-        <v>9314700</v>
+        <v>8590700</v>
       </c>
       <c r="H9" s="3">
-        <v>9704300</v>
+        <v>9005200</v>
       </c>
       <c r="I9" s="3">
-        <v>8319000</v>
+        <v>9381900</v>
       </c>
       <c r="J9" s="3">
+        <v>8042700</v>
+      </c>
+      <c r="K9" s="3">
         <v>7901300</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4761900</v>
+        <v>4962100</v>
       </c>
       <c r="E10" s="3">
-        <v>5338900</v>
+        <v>4603700</v>
       </c>
       <c r="F10" s="3">
-        <v>5060000</v>
+        <v>5161500</v>
       </c>
       <c r="G10" s="3">
-        <v>4069700</v>
+        <v>4892000</v>
       </c>
       <c r="H10" s="3">
-        <v>3392200</v>
+        <v>3934500</v>
       </c>
       <c r="I10" s="3">
-        <v>4333400</v>
+        <v>3279500</v>
       </c>
       <c r="J10" s="3">
+        <v>4189500</v>
+      </c>
+      <c r="K10" s="3">
         <v>4328100</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-206100</v>
+        <v>5600</v>
       </c>
       <c r="E14" s="3">
-        <v>2100</v>
+        <v>-198600</v>
       </c>
       <c r="F14" s="3">
-        <v>26900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>2400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>26000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>-2000</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K14" s="3">
         <v>94700</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2073100</v>
+        <v>2197100</v>
       </c>
       <c r="E15" s="3">
-        <v>1803800</v>
+        <v>2004300</v>
       </c>
       <c r="F15" s="3">
-        <v>1554000</v>
+        <v>1743900</v>
       </c>
       <c r="G15" s="3">
-        <v>1362800</v>
+        <v>1502400</v>
       </c>
       <c r="H15" s="3">
-        <v>1220900</v>
+        <v>1317600</v>
       </c>
       <c r="I15" s="3">
-        <v>1121500</v>
+        <v>1180300</v>
       </c>
       <c r="J15" s="3">
+        <v>1084300</v>
+      </c>
+      <c r="K15" s="3">
         <v>1033800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13808700</v>
+        <v>15204400</v>
       </c>
       <c r="E17" s="3">
-        <v>12825300</v>
+        <v>13350000</v>
       </c>
       <c r="F17" s="3">
-        <v>12072300</v>
+        <v>12399300</v>
       </c>
       <c r="G17" s="3">
-        <v>12485300</v>
+        <v>11671200</v>
       </c>
       <c r="H17" s="3">
-        <v>12862500</v>
+        <v>12070500</v>
       </c>
       <c r="I17" s="3">
-        <v>12025000</v>
+        <v>12435200</v>
       </c>
       <c r="J17" s="3">
+        <v>11625500</v>
+      </c>
+      <c r="K17" s="3">
         <v>11610200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1399700</v>
+        <v>1335700</v>
       </c>
       <c r="E18" s="3">
-        <v>1853000</v>
+        <v>1353200</v>
       </c>
       <c r="F18" s="3">
-        <v>1873700</v>
+        <v>1791500</v>
       </c>
       <c r="G18" s="3">
-        <v>899100</v>
+        <v>1811400</v>
       </c>
       <c r="H18" s="3">
-        <v>233900</v>
+        <v>869200</v>
       </c>
       <c r="I18" s="3">
-        <v>627500</v>
+        <v>226200</v>
       </c>
       <c r="J18" s="3">
+        <v>606600</v>
+      </c>
+      <c r="K18" s="3">
         <v>619200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>350700</v>
+        <v>-269300</v>
       </c>
       <c r="E20" s="3">
-        <v>-488300</v>
+        <v>339000</v>
       </c>
       <c r="F20" s="3">
-        <v>-707800</v>
+        <v>-472000</v>
       </c>
       <c r="G20" s="3">
-        <v>1800</v>
+        <v>-684300</v>
       </c>
       <c r="H20" s="3">
-        <v>324900</v>
+        <v>1700</v>
       </c>
       <c r="I20" s="3">
-        <v>71500</v>
+        <v>314100</v>
       </c>
       <c r="J20" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K20" s="3">
         <v>316200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3820400</v>
+        <v>3256500</v>
       </c>
       <c r="E21" s="3">
-        <v>3220900</v>
+        <v>3689300</v>
       </c>
       <c r="F21" s="3">
-        <v>2771400</v>
+        <v>3110200</v>
       </c>
       <c r="G21" s="3">
-        <v>2257500</v>
+        <v>2676100</v>
       </c>
       <c r="H21" s="3">
-        <v>1774100</v>
+        <v>2179700</v>
       </c>
       <c r="I21" s="3">
-        <v>1815400</v>
+        <v>1712700</v>
       </c>
       <c r="J21" s="3">
+        <v>1752800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1963100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>472500</v>
+        <v>513100</v>
       </c>
       <c r="E22" s="3">
-        <v>400600</v>
+        <v>456800</v>
       </c>
       <c r="F22" s="3">
-        <v>324900</v>
+        <v>387300</v>
       </c>
       <c r="G22" s="3">
-        <v>290400</v>
+        <v>314100</v>
       </c>
       <c r="H22" s="3">
-        <v>229800</v>
+        <v>280800</v>
       </c>
       <c r="I22" s="3">
-        <v>251900</v>
+        <v>222200</v>
       </c>
       <c r="J22" s="3">
+        <v>243600</v>
+      </c>
+      <c r="K22" s="3">
         <v>217100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1277800</v>
+        <v>553300</v>
       </c>
       <c r="E23" s="3">
-        <v>964200</v>
+        <v>1235400</v>
       </c>
       <c r="F23" s="3">
-        <v>841000</v>
+        <v>932200</v>
       </c>
       <c r="G23" s="3">
-        <v>610400</v>
+        <v>813100</v>
       </c>
       <c r="H23" s="3">
-        <v>329000</v>
+        <v>590100</v>
       </c>
       <c r="I23" s="3">
-        <v>447100</v>
+        <v>318100</v>
       </c>
       <c r="J23" s="3">
+        <v>432200</v>
+      </c>
+      <c r="K23" s="3">
         <v>718400</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>267100</v>
+        <v>132900</v>
       </c>
       <c r="E24" s="3">
-        <v>228800</v>
+        <v>258300</v>
       </c>
       <c r="F24" s="3">
-        <v>92600</v>
+        <v>221200</v>
       </c>
       <c r="G24" s="3">
-        <v>85000</v>
+        <v>89500</v>
       </c>
       <c r="H24" s="3">
-        <v>18400</v>
+        <v>82200</v>
       </c>
       <c r="I24" s="3">
-        <v>30400</v>
+        <v>17800</v>
       </c>
       <c r="J24" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K24" s="3">
         <v>39200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1010700</v>
+        <v>420400</v>
       </c>
       <c r="E26" s="3">
-        <v>735400</v>
+        <v>977100</v>
       </c>
       <c r="F26" s="3">
-        <v>748400</v>
+        <v>710900</v>
       </c>
       <c r="G26" s="3">
-        <v>525400</v>
+        <v>723600</v>
       </c>
       <c r="H26" s="3">
-        <v>310600</v>
+        <v>507900</v>
       </c>
       <c r="I26" s="3">
-        <v>416700</v>
+        <v>300300</v>
       </c>
       <c r="J26" s="3">
+        <v>402800</v>
+      </c>
+      <c r="K26" s="3">
         <v>679200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>941200</v>
+        <v>387100</v>
       </c>
       <c r="E27" s="3">
-        <v>667500</v>
+        <v>910000</v>
       </c>
       <c r="F27" s="3">
-        <v>673300</v>
+        <v>645400</v>
       </c>
       <c r="G27" s="3">
-        <v>506100</v>
+        <v>651000</v>
       </c>
       <c r="H27" s="3">
-        <v>352100</v>
+        <v>489300</v>
       </c>
       <c r="I27" s="3">
-        <v>438400</v>
+        <v>340400</v>
       </c>
       <c r="J27" s="3">
+        <v>423800</v>
+      </c>
+      <c r="K27" s="3">
         <v>679100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-350700</v>
+        <v>269300</v>
       </c>
       <c r="E32" s="3">
-        <v>488300</v>
+        <v>-339000</v>
       </c>
       <c r="F32" s="3">
-        <v>707800</v>
+        <v>472000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1800</v>
+        <v>684300</v>
       </c>
       <c r="H32" s="3">
-        <v>-324900</v>
+        <v>-1700</v>
       </c>
       <c r="I32" s="3">
-        <v>-71500</v>
+        <v>-314100</v>
       </c>
       <c r="J32" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-316200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>941200</v>
+        <v>387100</v>
       </c>
       <c r="E33" s="3">
-        <v>667500</v>
+        <v>910000</v>
       </c>
       <c r="F33" s="3">
-        <v>673300</v>
+        <v>645400</v>
       </c>
       <c r="G33" s="3">
-        <v>506100</v>
+        <v>651000</v>
       </c>
       <c r="H33" s="3">
-        <v>352100</v>
+        <v>489300</v>
       </c>
       <c r="I33" s="3">
-        <v>438400</v>
+        <v>340400</v>
       </c>
       <c r="J33" s="3">
+        <v>423800</v>
+      </c>
+      <c r="K33" s="3">
         <v>679100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>941200</v>
+        <v>387100</v>
       </c>
       <c r="E35" s="3">
-        <v>667500</v>
+        <v>910000</v>
       </c>
       <c r="F35" s="3">
-        <v>673300</v>
+        <v>645400</v>
       </c>
       <c r="G35" s="3">
-        <v>506100</v>
+        <v>651000</v>
       </c>
       <c r="H35" s="3">
-        <v>352100</v>
+        <v>489300</v>
       </c>
       <c r="I35" s="3">
-        <v>438400</v>
+        <v>340400</v>
       </c>
       <c r="J35" s="3">
+        <v>423800</v>
+      </c>
+      <c r="K35" s="3">
         <v>679100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>683400</v>
+        <v>92700</v>
       </c>
       <c r="E41" s="3">
-        <v>251600</v>
+        <v>660700</v>
       </c>
       <c r="F41" s="3">
-        <v>1347600</v>
+        <v>243200</v>
       </c>
       <c r="G41" s="3">
-        <v>201100</v>
+        <v>1302800</v>
       </c>
       <c r="H41" s="3">
-        <v>296100</v>
+        <v>194400</v>
       </c>
       <c r="I41" s="3">
-        <v>372800</v>
+        <v>286200</v>
       </c>
       <c r="J41" s="3">
+        <v>360400</v>
+      </c>
+      <c r="K41" s="3">
         <v>573000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+        <v>13800</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1549700</v>
+        <v>1765500</v>
       </c>
       <c r="E43" s="3">
-        <v>1307300</v>
+        <v>1498200</v>
       </c>
       <c r="F43" s="3">
-        <v>1505300</v>
+        <v>1263900</v>
       </c>
       <c r="G43" s="3">
-        <v>573200</v>
+        <v>1455300</v>
       </c>
       <c r="H43" s="3">
-        <v>523100</v>
+        <v>554100</v>
       </c>
       <c r="I43" s="3">
-        <v>439600</v>
+        <v>505700</v>
       </c>
       <c r="J43" s="3">
+        <v>425000</v>
+      </c>
+      <c r="K43" s="3">
         <v>371600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>324300</v>
+        <v>279800</v>
       </c>
       <c r="E44" s="3">
-        <v>333600</v>
+        <v>313500</v>
       </c>
       <c r="F44" s="3">
-        <v>305100</v>
+        <v>322500</v>
       </c>
       <c r="G44" s="3">
-        <v>335300</v>
+        <v>295000</v>
       </c>
       <c r="H44" s="3">
-        <v>342100</v>
+        <v>324100</v>
       </c>
       <c r="I44" s="3">
-        <v>309900</v>
+        <v>330800</v>
       </c>
       <c r="J44" s="3">
+        <v>299600</v>
+      </c>
+      <c r="K44" s="3">
         <v>230900</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>157500</v>
+        <v>134200</v>
       </c>
       <c r="E45" s="3">
-        <v>465400</v>
+        <v>152200</v>
       </c>
       <c r="F45" s="3">
-        <v>267000</v>
+        <v>450000</v>
       </c>
       <c r="G45" s="3">
-        <v>1597900</v>
+        <v>258100</v>
       </c>
       <c r="H45" s="3">
-        <v>710100</v>
+        <v>1544800</v>
       </c>
       <c r="I45" s="3">
-        <v>758800</v>
+        <v>686500</v>
       </c>
       <c r="J45" s="3">
+        <v>733600</v>
+      </c>
+      <c r="K45" s="3">
         <v>858900</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2714900</v>
+        <v>2285900</v>
       </c>
       <c r="E46" s="3">
-        <v>2357900</v>
+        <v>2624700</v>
       </c>
       <c r="F46" s="3">
-        <v>3425000</v>
+        <v>2279600</v>
       </c>
       <c r="G46" s="3">
-        <v>2707400</v>
+        <v>3311200</v>
       </c>
       <c r="H46" s="3">
-        <v>1871400</v>
+        <v>2617500</v>
       </c>
       <c r="I46" s="3">
-        <v>1881100</v>
+        <v>1809300</v>
       </c>
       <c r="J46" s="3">
+        <v>1818600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2034400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>456500</v>
+        <v>512900</v>
       </c>
       <c r="E47" s="3">
-        <v>413800</v>
+        <v>441300</v>
       </c>
       <c r="F47" s="3">
-        <v>517500</v>
+        <v>400000</v>
       </c>
       <c r="G47" s="3">
-        <v>300400</v>
+        <v>500300</v>
       </c>
       <c r="H47" s="3">
-        <v>283200</v>
+        <v>290400</v>
       </c>
       <c r="I47" s="3">
-        <v>220600</v>
+        <v>273800</v>
       </c>
       <c r="J47" s="3">
+        <v>213300</v>
+      </c>
+      <c r="K47" s="3">
         <v>222800</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28513600</v>
+        <v>29118800</v>
       </c>
       <c r="E48" s="3">
-        <v>26289800</v>
+        <v>27566400</v>
       </c>
       <c r="F48" s="3">
-        <v>23015600</v>
+        <v>25416500</v>
       </c>
       <c r="G48" s="3">
-        <v>19248600</v>
+        <v>22251000</v>
       </c>
       <c r="H48" s="3">
-        <v>16188400</v>
+        <v>18609200</v>
       </c>
       <c r="I48" s="3">
-        <v>14011900</v>
+        <v>15650600</v>
       </c>
       <c r="J48" s="3">
+        <v>13546500</v>
+      </c>
+      <c r="K48" s="3">
         <v>12574200</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1721000</v>
+        <v>1665700</v>
       </c>
       <c r="E49" s="3">
-        <v>1725100</v>
+        <v>1663800</v>
       </c>
       <c r="F49" s="3">
-        <v>1710000</v>
+        <v>1667800</v>
       </c>
       <c r="G49" s="3">
-        <v>1706700</v>
+        <v>1653200</v>
       </c>
       <c r="H49" s="3">
-        <v>1705200</v>
+        <v>1650000</v>
       </c>
       <c r="I49" s="3">
-        <v>1699200</v>
+        <v>1648600</v>
       </c>
       <c r="J49" s="3">
+        <v>1642700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1685000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>687900</v>
+        <v>710800</v>
       </c>
       <c r="E52" s="3">
-        <v>724400</v>
+        <v>665000</v>
       </c>
       <c r="F52" s="3">
-        <v>715900</v>
+        <v>700300</v>
       </c>
       <c r="G52" s="3">
-        <v>647500</v>
+        <v>692100</v>
       </c>
       <c r="H52" s="3">
-        <v>739200</v>
+        <v>626000</v>
       </c>
       <c r="I52" s="3">
-        <v>563200</v>
+        <v>714700</v>
       </c>
       <c r="J52" s="3">
+        <v>544500</v>
+      </c>
+      <c r="K52" s="3">
         <v>512000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34093800</v>
+        <v>34294200</v>
       </c>
       <c r="E54" s="3">
-        <v>31511000</v>
+        <v>32961200</v>
       </c>
       <c r="F54" s="3">
-        <v>29384000</v>
+        <v>30464200</v>
       </c>
       <c r="G54" s="3">
-        <v>24610700</v>
+        <v>28407900</v>
       </c>
       <c r="H54" s="3">
-        <v>20787500</v>
+        <v>23793100</v>
       </c>
       <c r="I54" s="3">
-        <v>18375900</v>
+        <v>20097000</v>
       </c>
       <c r="J54" s="3">
+        <v>17765500</v>
+      </c>
+      <c r="K54" s="3">
         <v>17028400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>472500</v>
+        <v>579700</v>
       </c>
       <c r="E57" s="3">
-        <v>501000</v>
+        <v>456800</v>
       </c>
       <c r="F57" s="3">
-        <v>550900</v>
+        <v>484400</v>
       </c>
       <c r="G57" s="3">
-        <v>309100</v>
+        <v>532600</v>
       </c>
       <c r="H57" s="3">
-        <v>3207000</v>
+        <v>298900</v>
       </c>
       <c r="I57" s="3">
-        <v>485300</v>
+        <v>496900</v>
       </c>
       <c r="J57" s="3">
+        <v>469200</v>
+      </c>
+      <c r="K57" s="3">
         <v>413900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7172800</v>
+        <v>5541600</v>
       </c>
       <c r="E58" s="3">
-        <v>5237200</v>
+        <v>6934500</v>
       </c>
       <c r="F58" s="3">
-        <v>6578000</v>
+        <v>5063300</v>
       </c>
       <c r="G58" s="3">
-        <v>4937900</v>
+        <v>6359500</v>
       </c>
       <c r="H58" s="3">
-        <v>3898100</v>
+        <v>4773900</v>
       </c>
       <c r="I58" s="3">
-        <v>3855600</v>
+        <v>3768600</v>
       </c>
       <c r="J58" s="3">
+        <v>3727500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3117500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4276100</v>
+        <v>4361900</v>
       </c>
       <c r="E59" s="3">
-        <v>4365800</v>
+        <v>4134100</v>
       </c>
       <c r="F59" s="3">
-        <v>3910900</v>
+        <v>4220800</v>
       </c>
       <c r="G59" s="3">
-        <v>3825300</v>
+        <v>3781000</v>
       </c>
       <c r="H59" s="3">
-        <v>772800</v>
+        <v>3698200</v>
       </c>
       <c r="I59" s="3">
-        <v>2875200</v>
+        <v>3350700</v>
       </c>
       <c r="J59" s="3">
+        <v>2779700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2907600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11921500</v>
+        <v>10483200</v>
       </c>
       <c r="E60" s="3">
-        <v>10104000</v>
+        <v>11525500</v>
       </c>
       <c r="F60" s="3">
-        <v>11039800</v>
+        <v>9768400</v>
       </c>
       <c r="G60" s="3">
-        <v>9072300</v>
+        <v>10673000</v>
       </c>
       <c r="H60" s="3">
-        <v>7877900</v>
+        <v>8770900</v>
       </c>
       <c r="I60" s="3">
-        <v>7216100</v>
+        <v>7616200</v>
       </c>
       <c r="J60" s="3">
+        <v>6976400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6439000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12219800</v>
+        <v>13477100</v>
       </c>
       <c r="E61" s="3">
-        <v>12241500</v>
+        <v>11813900</v>
       </c>
       <c r="F61" s="3">
-        <v>11099300</v>
+        <v>11834800</v>
       </c>
       <c r="G61" s="3">
-        <v>9589100</v>
+        <v>10730600</v>
       </c>
       <c r="H61" s="3">
-        <v>7045000</v>
+        <v>9270500</v>
       </c>
       <c r="I61" s="3">
-        <v>6285000</v>
+        <v>6811000</v>
       </c>
       <c r="J61" s="3">
+        <v>6076200</v>
+      </c>
+      <c r="K61" s="3">
         <v>6144900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1229300</v>
+        <v>1495300</v>
       </c>
       <c r="E62" s="3">
-        <v>1393900</v>
+        <v>1188400</v>
       </c>
       <c r="F62" s="3">
-        <v>1318800</v>
+        <v>1347600</v>
       </c>
       <c r="G62" s="3">
-        <v>1234200</v>
+        <v>1275000</v>
       </c>
       <c r="H62" s="3">
-        <v>1622700</v>
+        <v>1193200</v>
       </c>
       <c r="I62" s="3">
-        <v>1230800</v>
+        <v>1568800</v>
       </c>
       <c r="J62" s="3">
+        <v>1189900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1208400</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25877800</v>
+        <v>25971200</v>
       </c>
       <c r="E66" s="3">
-        <v>24172100</v>
+        <v>25018200</v>
       </c>
       <c r="F66" s="3">
-        <v>23831800</v>
+        <v>23369200</v>
       </c>
       <c r="G66" s="3">
-        <v>20162200</v>
+        <v>23040200</v>
       </c>
       <c r="H66" s="3">
-        <v>16794900</v>
+        <v>19492500</v>
       </c>
       <c r="I66" s="3">
-        <v>14973500</v>
+        <v>16237000</v>
       </c>
       <c r="J66" s="3">
+        <v>14476100</v>
+      </c>
+      <c r="K66" s="3">
         <v>14041500</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6068900</v>
+        <v>6247300</v>
       </c>
       <c r="E72" s="3">
-        <v>5191800</v>
+        <v>5867300</v>
       </c>
       <c r="F72" s="3">
-        <v>3602100</v>
+        <v>5019400</v>
       </c>
       <c r="G72" s="3">
-        <v>-419900</v>
+        <v>3482400</v>
       </c>
       <c r="H72" s="3">
-        <v>-877300</v>
+        <v>-405900</v>
       </c>
       <c r="I72" s="3">
-        <v>-944700</v>
+        <v>-848200</v>
       </c>
       <c r="J72" s="3">
+        <v>-913300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1382000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8216000</v>
+        <v>8323000</v>
       </c>
       <c r="E76" s="3">
-        <v>7338900</v>
+        <v>7943100</v>
       </c>
       <c r="F76" s="3">
-        <v>5552200</v>
+        <v>7095100</v>
       </c>
       <c r="G76" s="3">
-        <v>4448400</v>
+        <v>5367700</v>
       </c>
       <c r="H76" s="3">
-        <v>3992600</v>
+        <v>4300700</v>
       </c>
       <c r="I76" s="3">
-        <v>3402400</v>
+        <v>3859900</v>
       </c>
       <c r="J76" s="3">
+        <v>3289400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2986900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>941200</v>
+        <v>387100</v>
       </c>
       <c r="E81" s="3">
-        <v>667500</v>
+        <v>910000</v>
       </c>
       <c r="F81" s="3">
-        <v>673300</v>
+        <v>645400</v>
       </c>
       <c r="G81" s="3">
-        <v>506100</v>
+        <v>651000</v>
       </c>
       <c r="H81" s="3">
-        <v>352100</v>
+        <v>489300</v>
       </c>
       <c r="I81" s="3">
-        <v>438400</v>
+        <v>340400</v>
       </c>
       <c r="J81" s="3">
+        <v>423800</v>
+      </c>
+      <c r="K81" s="3">
         <v>679100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2066500</v>
+        <v>2190900</v>
       </c>
       <c r="E83" s="3">
-        <v>1852900</v>
+        <v>1997800</v>
       </c>
       <c r="F83" s="3">
-        <v>1602700</v>
+        <v>1791300</v>
       </c>
       <c r="G83" s="3">
-        <v>1354200</v>
+        <v>1549400</v>
       </c>
       <c r="H83" s="3">
-        <v>1213100</v>
+        <v>1309300</v>
       </c>
       <c r="I83" s="3">
-        <v>1114400</v>
+        <v>1172800</v>
       </c>
       <c r="J83" s="3">
+        <v>1077400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1025800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2904700</v>
+        <v>3205100</v>
       </c>
       <c r="E89" s="3">
-        <v>3694400</v>
+        <v>2808200</v>
       </c>
       <c r="F89" s="3">
-        <v>3610100</v>
+        <v>3571600</v>
       </c>
       <c r="G89" s="3">
-        <v>1824800</v>
+        <v>3490200</v>
       </c>
       <c r="H89" s="3">
-        <v>1603800</v>
+        <v>1764200</v>
       </c>
       <c r="I89" s="3">
-        <v>1872500</v>
+        <v>1550500</v>
       </c>
       <c r="J89" s="3">
+        <v>1810300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2021800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1157000</v>
+        <v>-1528500</v>
       </c>
       <c r="E91" s="3">
-        <v>-3195700</v>
+        <v>-1118600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1277700</v>
+        <v>-3089600</v>
       </c>
       <c r="G91" s="3">
-        <v>-864900</v>
+        <v>-1235200</v>
       </c>
       <c r="H91" s="3">
-        <v>-270400</v>
+        <v>-836200</v>
       </c>
       <c r="I91" s="3">
-        <v>-912400</v>
+        <v>-261400</v>
       </c>
       <c r="J91" s="3">
+        <v>-882100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-796700</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3162900</v>
+        <v>-1833700</v>
       </c>
       <c r="E94" s="3">
-        <v>-5517900</v>
+        <v>-3057800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4125800</v>
+        <v>-5334600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3566700</v>
+        <v>-3988700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2527100</v>
+        <v>-3448300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1749600</v>
+        <v>-2443100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1691500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2217100</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,19 +3058,20 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-105200</v>
+        <v>-105900</v>
       </c>
       <c r="E96" s="3">
-        <v>-109500</v>
+        <v>-101700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-105900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -2887,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>698700</v>
+        <v>-1945300</v>
       </c>
       <c r="E100" s="3">
-        <v>687700</v>
+        <v>675500</v>
       </c>
       <c r="F100" s="3">
-        <v>1644800</v>
+        <v>664900</v>
       </c>
       <c r="G100" s="3">
-        <v>1649100</v>
+        <v>1590200</v>
       </c>
       <c r="H100" s="3">
-        <v>850300</v>
+        <v>1594300</v>
       </c>
       <c r="I100" s="3">
-        <v>-322700</v>
+        <v>822100</v>
       </c>
       <c r="J100" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="K100" s="3">
         <v>316900</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7000</v>
+        <v>4300</v>
       </c>
       <c r="E101" s="3">
-        <v>39800</v>
+        <v>-6700</v>
       </c>
       <c r="F101" s="3">
-        <v>17400</v>
+        <v>38500</v>
       </c>
       <c r="G101" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-3800</v>
-      </c>
       <c r="I101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5500</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>433500</v>
+        <v>-569600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1096000</v>
+        <v>419100</v>
       </c>
       <c r="F102" s="3">
-        <v>1146500</v>
+        <v>-1059600</v>
       </c>
       <c r="G102" s="3">
-        <v>-95000</v>
+        <v>1108400</v>
       </c>
       <c r="H102" s="3">
-        <v>-76700</v>
+        <v>-91800</v>
       </c>
       <c r="I102" s="3">
-        <v>-200200</v>
+        <v>-74100</v>
       </c>
       <c r="J102" s="3">
+        <v>-193600</v>
+      </c>
+      <c r="K102" s="3">
         <v>116200</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
